--- a/biology/Zoologie/Aigrette_à_gorge_blanche/Aigrette_à_gorge_blanche.xlsx
+++ b/biology/Zoologie/Aigrette_à_gorge_blanche/Aigrette_à_gorge_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aigrette_%C3%A0_gorge_blanche</t>
+          <t>Aigrette_à_gorge_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Egretta gularis
 L'Aigrette à gorge blanche (Egretta gularis), également appelée Aigrette des récifs, est parfois considérée comme une sous-espèce de l'Aigrette garzette. Son bec est toutefois plus épais que chez cette dernière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aigrette_%C3%A0_gorge_blanche</t>
+          <t>Aigrette_à_gorge_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aigrette à gorge blanche est un Ardeidae de taille moyenne (environ 60 cm de longueur pour une envergure de 95 cm). Deux formes de plumage prédominent : une blanche et une gris sombre. Les oiseaux intermédiaires sont réputés rares. C'est la forme blanche qui ressemble fortement à l'Aigrette garzette, mais elle s'en distingue par le fait que son bec est plus épais, et que le bout de ses pattes (avant les pieds) est déjà un mélange de jaune et noir[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aigrette à gorge blanche est un Ardeidae de taille moyenne (environ 60 cm de longueur pour une envergure de 95 cm). Deux formes de plumage prédominent : une blanche et une gris sombre. Les oiseaux intermédiaires sont réputés rares. C'est la forme blanche qui ressemble fortement à l'Aigrette garzette, mais elle s'en distingue par le fait que son bec est plus épais, et que le bout de ses pattes (avant les pieds) est déjà un mélange de jaune et noir.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aigrette_%C3%A0_gorge_blanche</t>
+          <t>Aigrette_à_gorge_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple l'Afrique de l'Ouest (de la Mauritanie au Gabon et le Golfe de Guinée), les côtes d'Afrique de l'Est, du Moyen-Orient et la côte de Coromandel.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aigrette_%C3%A0_gorge_blanche</t>
+          <t>Aigrette_à_gorge_blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente surtout le littoral. Il se reproduit dans les arbres et les buissons, y compris dans les mangroves, mais aussi dans les cavités de falaises et sur les îles.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aigrette_%C3%A0_gorge_blanche</t>
+          <t>Aigrette_à_gorge_blanche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se nourrit de petits poissons, de crustacés et de mollusques, mais aussi de criquets, de larves et de vers.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aigrette_%C3%A0_gorge_blanche</t>
+          <t>Aigrette_à_gorge_blanche</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Timbre de Djibouti 1991, valeur faciale 15 F
 </t>
